--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Control&MonitoringProject.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_Control&MonitoringProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456AE8D2-0E2C-4C49-9F6A-0FEA19B87F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081CDE0-2A9B-4CB8-847F-E54485BF7082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -24,14 +24,12 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2245,67 +2243,19 @@
     <xf numFmtId="1" fontId="52" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2351,6 +2301,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="42" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2606,13 +2604,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2947,26 +2945,26 @@
   <dimension ref="A1:ET85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="7" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:150" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>62</v>
       </c>
@@ -3036,7 +3034,7 @@
       <c r="BM1" s="30"/>
       <c r="BN1" s="30"/>
     </row>
-    <row r="2" spans="1:150" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:150" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="113" t="s">
         <v>61</v>
       </c>
@@ -3110,23 +3108,23 @@
       <c r="BM3" s="117"/>
       <c r="BN3" s="118"/>
     </row>
-    <row r="4" spans="1:150" s="109" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:150" s="109" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="111"/>
       <c r="B4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="166">
+      <c r="C4" s="150">
         <v>43752</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
       <c r="H4" s="114" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="115">
         <v>4</v>
       </c>
-      <c r="K4" s="164" t="str">
+      <c r="K4" s="148" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
@@ -3135,8 +3133,8 @@
       <c r="N4" s="143"/>
       <c r="O4" s="143"/>
       <c r="P4" s="143"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="164" t="str">
+      <c r="Q4" s="153"/>
+      <c r="R4" s="148" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
@@ -3145,8 +3143,8 @@
       <c r="U4" s="143"/>
       <c r="V4" s="143"/>
       <c r="W4" s="143"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="173" t="str">
+      <c r="X4" s="149"/>
+      <c r="Y4" s="157" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
@@ -3155,8 +3153,8 @@
       <c r="AB4" s="143"/>
       <c r="AC4" s="143"/>
       <c r="AD4" s="143"/>
-      <c r="AE4" s="174"/>
-      <c r="AF4" s="160" t="str">
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="142" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
@@ -3165,8 +3163,8 @@
       <c r="AI4" s="143"/>
       <c r="AJ4" s="143"/>
       <c r="AK4" s="143"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="154" t="str">
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="171" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
@@ -3175,8 +3173,8 @@
       <c r="AP4" s="143"/>
       <c r="AQ4" s="143"/>
       <c r="AR4" s="143"/>
-      <c r="AS4" s="155"/>
-      <c r="AT4" s="150" t="str">
+      <c r="AS4" s="172"/>
+      <c r="AT4" s="167" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
@@ -3185,8 +3183,8 @@
       <c r="AW4" s="143"/>
       <c r="AX4" s="143"/>
       <c r="AY4" s="143"/>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="173" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
@@ -3195,8 +3193,8 @@
       <c r="BD4" s="143"/>
       <c r="BE4" s="143"/>
       <c r="BF4" s="143"/>
-      <c r="BG4" s="157"/>
-      <c r="BH4" s="142" t="str">
+      <c r="BG4" s="174"/>
+      <c r="BH4" s="161" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
@@ -3205,24 +3203,24 @@
       <c r="BK4" s="143"/>
       <c r="BL4" s="143"/>
       <c r="BM4" s="143"/>
-      <c r="BN4" s="144"/>
+      <c r="BN4" s="162"/>
     </row>
-    <row r="5" spans="1:150" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:150" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="112"/>
       <c r="B5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="170">
+      <c r="K5" s="154">
         <f>K6</f>
         <v>43773</v>
       </c>
@@ -3231,8 +3229,8 @@
       <c r="N5" s="146"/>
       <c r="O5" s="146"/>
       <c r="P5" s="146"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="Q5" s="156"/>
+      <c r="R5" s="154">
         <f>R6</f>
         <v>43780</v>
       </c>
@@ -3241,8 +3239,8 @@
       <c r="U5" s="146"/>
       <c r="V5" s="146"/>
       <c r="W5" s="146"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="175">
+      <c r="X5" s="155"/>
+      <c r="Y5" s="159">
         <f>Y6</f>
         <v>43787</v>
       </c>
@@ -3251,8 +3249,8 @@
       <c r="AB5" s="146"/>
       <c r="AC5" s="146"/>
       <c r="AD5" s="146"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="162">
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="145">
         <f>AF6</f>
         <v>43794</v>
       </c>
@@ -3261,8 +3259,8 @@
       <c r="AI5" s="146"/>
       <c r="AJ5" s="146"/>
       <c r="AK5" s="146"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="148">
+      <c r="AL5" s="147"/>
+      <c r="AM5" s="165">
         <f>AM6</f>
         <v>43801</v>
       </c>
@@ -3271,8 +3269,8 @@
       <c r="AP5" s="146"/>
       <c r="AQ5" s="146"/>
       <c r="AR5" s="146"/>
-      <c r="AS5" s="149"/>
-      <c r="AT5" s="152">
+      <c r="AS5" s="166"/>
+      <c r="AT5" s="169">
         <f>AT6</f>
         <v>43808</v>
       </c>
@@ -3281,8 +3279,8 @@
       <c r="AW5" s="146"/>
       <c r="AX5" s="146"/>
       <c r="AY5" s="146"/>
-      <c r="AZ5" s="153"/>
-      <c r="BA5" s="158">
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="175">
         <f>BA6</f>
         <v>43815</v>
       </c>
@@ -3291,8 +3289,8 @@
       <c r="BD5" s="146"/>
       <c r="BE5" s="146"/>
       <c r="BF5" s="146"/>
-      <c r="BG5" s="159"/>
-      <c r="BH5" s="145">
+      <c r="BG5" s="176"/>
+      <c r="BH5" s="163">
         <f>BH6</f>
         <v>43822</v>
       </c>
@@ -3301,9 +3299,9 @@
       <c r="BK5" s="146"/>
       <c r="BL5" s="146"/>
       <c r="BM5" s="146"/>
-      <c r="BN5" s="147"/>
+      <c r="BN5" s="164"/>
     </row>
-    <row r="6" spans="1:150" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:150" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -3877,7 +3875,7 @@
       <c r="ES7" s="42"/>
       <c r="ET7" s="42"/>
     </row>
-    <row r="8" spans="1:150" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:150" s="5" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -3956,7 +3954,7 @@
       <c r="BM8" s="8"/>
       <c r="BN8" s="8"/>
     </row>
-    <row r="9" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="125" t="str">
         <f t="shared" ref="A9:A32" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -4042,7 +4040,7 @@
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
     </row>
-    <row r="10" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="124" t="str">
         <f t="shared" ref="A10:A17" si="10">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -4129,7 +4127,7 @@
       <c r="BM10" s="13"/>
       <c r="BN10" s="13"/>
     </row>
-    <row r="11" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.2</v>
@@ -4216,7 +4214,7 @@
       <c r="BM11" s="13"/>
       <c r="BN11" s="13"/>
     </row>
-    <row r="12" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.3</v>
@@ -4303,7 +4301,7 @@
       <c r="BM12" s="13"/>
       <c r="BN12" s="13"/>
     </row>
-    <row r="13" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.4</v>
@@ -4390,7 +4388,7 @@
       <c r="BM13" s="13"/>
       <c r="BN13" s="13"/>
     </row>
-    <row r="14" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.5</v>
@@ -4477,7 +4475,7 @@
       <c r="BM14" s="13"/>
       <c r="BN14" s="13"/>
     </row>
-    <row r="15" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.6</v>
@@ -4564,7 +4562,7 @@
       <c r="BM15" s="13"/>
       <c r="BN15" s="13"/>
     </row>
-    <row r="16" spans="1:150" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:150" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.7</v>
@@ -4651,7 +4649,7 @@
       <c r="BM16" s="13"/>
       <c r="BN16" s="13"/>
     </row>
-    <row r="17" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="124" t="str">
         <f t="shared" si="10"/>
         <v>1.1.8</v>
@@ -4738,7 +4736,7 @@
       <c r="BM17" s="13"/>
       <c r="BN17" s="13"/>
     </row>
-    <row r="18" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="126" t="str">
         <f t="shared" si="9"/>
         <v>1.2</v>
@@ -4823,7 +4821,7 @@
       <c r="BM18" s="13"/>
       <c r="BN18" s="13"/>
     </row>
-    <row r="19" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
@@ -4910,7 +4908,7 @@
       <c r="BM19" s="13"/>
       <c r="BN19" s="13"/>
     </row>
-    <row r="20" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
@@ -4997,7 +4995,7 @@
       <c r="BM20" s="13"/>
       <c r="BN20" s="13"/>
     </row>
-    <row r="21" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="125" t="str">
         <f t="shared" si="9"/>
         <v>1.3</v>
@@ -5082,7 +5080,7 @@
       <c r="BM21" s="13"/>
       <c r="BN21" s="13"/>
     </row>
-    <row r="22" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
@@ -5169,7 +5167,7 @@
       <c r="BM22" s="13"/>
       <c r="BN22" s="13"/>
     </row>
-    <row r="23" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
@@ -5256,7 +5254,7 @@
       <c r="BM23" s="13"/>
       <c r="BN23" s="13"/>
     </row>
-    <row r="24" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="126" t="str">
         <f t="shared" si="9"/>
         <v>1.4</v>
@@ -5341,7 +5339,7 @@
       <c r="BM24" s="13"/>
       <c r="BN24" s="13"/>
     </row>
-    <row r="25" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
@@ -5428,7 +5426,7 @@
       <c r="BM25" s="13"/>
       <c r="BN25" s="13"/>
     </row>
-    <row r="26" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="126" t="str">
         <f t="shared" si="9"/>
         <v>1.5</v>
@@ -5513,7 +5511,7 @@
       <c r="BM26" s="13"/>
       <c r="BN26" s="13"/>
     </row>
-    <row r="27" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
@@ -5600,7 +5598,7 @@
       <c r="BM27" s="13"/>
       <c r="BN27" s="13"/>
     </row>
-    <row r="28" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
@@ -5687,7 +5685,7 @@
       <c r="BM28" s="13"/>
       <c r="BN28" s="13"/>
     </row>
-    <row r="29" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="126" t="str">
         <f t="shared" si="9"/>
         <v>1.6</v>
@@ -5772,7 +5770,7 @@
       <c r="BM29" s="13"/>
       <c r="BN29" s="13"/>
     </row>
-    <row r="30" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
@@ -5859,7 +5857,7 @@
       <c r="BM30" s="13"/>
       <c r="BN30" s="13"/>
     </row>
-    <row r="31" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
@@ -5946,7 +5944,7 @@
       <c r="BM31" s="13"/>
       <c r="BN31" s="13"/>
     </row>
-    <row r="32" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="126" t="str">
         <f t="shared" si="9"/>
         <v>1.7</v>
@@ -6031,7 +6029,7 @@
       <c r="BM32" s="13"/>
       <c r="BN32" s="13"/>
     </row>
-    <row r="33" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
@@ -6118,7 +6116,7 @@
       <c r="BM33" s="13"/>
       <c r="BN33" s="13"/>
     </row>
-    <row r="34" spans="1:66" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="87" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -6203,7 +6201,7 @@
       <c r="BM34" s="18"/>
       <c r="BN34" s="18"/>
     </row>
-    <row r="35" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -6288,7 +6286,7 @@
       <c r="BM35" s="13"/>
       <c r="BN35" s="13"/>
     </row>
-    <row r="36" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -6375,7 +6373,7 @@
       <c r="BM36" s="13"/>
       <c r="BN36" s="13"/>
     </row>
-    <row r="37" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -6462,7 +6460,7 @@
       <c r="BM37" s="13"/>
       <c r="BN37" s="13"/>
     </row>
-    <row r="38" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
@@ -6549,7 +6547,7 @@
       <c r="BM38" s="13"/>
       <c r="BN38" s="13"/>
     </row>
-    <row r="39" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -6634,7 +6632,7 @@
       <c r="BM39" s="13"/>
       <c r="BN39" s="13"/>
     </row>
-    <row r="40" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
@@ -6721,7 +6719,7 @@
       <c r="BM40" s="13"/>
       <c r="BN40" s="13"/>
     </row>
-    <row r="41" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
@@ -6808,7 +6806,7 @@
       <c r="BM41" s="13"/>
       <c r="BN41" s="13"/>
     </row>
-    <row r="42" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
@@ -6895,7 +6893,7 @@
       <c r="BM42" s="13"/>
       <c r="BN42" s="13"/>
     </row>
-    <row r="43" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -6982,7 +6980,7 @@
       <c r="BM43" s="13"/>
       <c r="BN43" s="13"/>
     </row>
-    <row r="44" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -7069,7 +7067,7 @@
       <c r="BM44" s="13"/>
       <c r="BN44" s="13"/>
     </row>
-    <row r="45" spans="1:66" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="87" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -7150,7 +7148,7 @@
       <c r="BM45" s="18"/>
       <c r="BN45" s="18"/>
     </row>
-    <row r="46" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -7232,7 +7230,7 @@
       <c r="BM46" s="13"/>
       <c r="BN46" s="13"/>
     </row>
-    <row r="47" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
@@ -7314,7 +7312,7 @@
       <c r="BM47" s="13"/>
       <c r="BN47" s="13"/>
     </row>
-    <row r="48" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.1</v>
@@ -7396,7 +7394,7 @@
       <c r="BM48" s="13"/>
       <c r="BN48" s="13"/>
     </row>
-    <row r="49" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.2</v>
@@ -7478,7 +7476,7 @@
       <c r="BM49" s="13"/>
       <c r="BN49" s="13"/>
     </row>
-    <row r="50" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.3</v>
@@ -7560,7 +7558,7 @@
       <c r="BM50" s="13"/>
       <c r="BN50" s="13"/>
     </row>
-    <row r="51" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
@@ -7642,7 +7640,7 @@
       <c r="BM51" s="13"/>
       <c r="BN51" s="13"/>
     </row>
-    <row r="52" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.3</v>
@@ -7724,7 +7722,7 @@
       <c r="BM52" s="13"/>
       <c r="BN52" s="13"/>
     </row>
-    <row r="53" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -7806,7 +7804,7 @@
       <c r="BM53" s="13"/>
       <c r="BN53" s="13"/>
     </row>
-    <row r="54" spans="1:66" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
@@ -7888,7 +7886,7 @@
       <c r="BM54" s="13"/>
       <c r="BN54" s="13"/>
     </row>
-    <row r="55" spans="1:66" s="11" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.2.1.1</v>
@@ -7970,7 +7968,7 @@
       <c r="BM55" s="13"/>
       <c r="BN55" s="13"/>
     </row>
-    <row r="56" spans="1:66" s="11" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.2.1.2</v>
@@ -8052,7 +8050,7 @@
       <c r="BM56" s="13"/>
       <c r="BN56" s="13"/>
     </row>
-    <row r="57" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.2</v>
@@ -8135,7 +8133,7 @@
       <c r="BM57" s="13"/>
       <c r="BN57" s="13"/>
     </row>
-    <row r="58" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.3</v>
@@ -8218,7 +8216,7 @@
       <c r="BM58" s="13"/>
       <c r="BN58" s="13"/>
     </row>
-    <row r="59" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -8301,7 +8299,7 @@
       <c r="BM59" s="13"/>
       <c r="BN59" s="13"/>
     </row>
-    <row r="60" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
@@ -8384,7 +8382,7 @@
       <c r="BM60" s="13"/>
       <c r="BN60" s="13"/>
     </row>
-    <row r="61" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.3.1.1</v>
@@ -8467,7 +8465,7 @@
       <c r="BM61" s="13"/>
       <c r="BN61" s="13"/>
     </row>
-    <row r="62" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.3.1.2</v>
@@ -8550,7 +8548,7 @@
       <c r="BM62" s="13"/>
       <c r="BN62" s="13"/>
     </row>
-    <row r="63" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.3.1.3</v>
@@ -8633,7 +8631,7 @@
       <c r="BM63" s="13"/>
       <c r="BN63" s="13"/>
     </row>
-    <row r="64" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="124" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.2</v>
@@ -8716,7 +8714,7 @@
       <c r="BM64" s="13"/>
       <c r="BN64" s="13"/>
     </row>
-    <row r="65" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -8784,7 +8782,7 @@
       <c r="BM65" s="13"/>
       <c r="BN65" s="13"/>
     </row>
-    <row r="66" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -8852,7 +8850,7 @@
       <c r="BM66" s="13"/>
       <c r="BN66" s="13"/>
     </row>
-    <row r="67" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -8920,7 +8918,7 @@
       <c r="BM67" s="13"/>
       <c r="BN67" s="13"/>
     </row>
-    <row r="68" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -8988,7 +8986,7 @@
       <c r="BM68" s="13"/>
       <c r="BN68" s="13"/>
     </row>
-    <row r="69" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -9056,7 +9054,7 @@
       <c r="BM69" s="13"/>
       <c r="BN69" s="13"/>
     </row>
-    <row r="70" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -9124,7 +9122,7 @@
       <c r="BM70" s="13"/>
       <c r="BN70" s="13"/>
     </row>
-    <row r="71" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -9192,7 +9190,7 @@
       <c r="BM71" s="13"/>
       <c r="BN71" s="13"/>
     </row>
-    <row r="72" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -9260,7 +9258,7 @@
       <c r="BM72" s="13"/>
       <c r="BN72" s="13"/>
     </row>
-    <row r="73" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -9328,7 +9326,7 @@
       <c r="BM73" s="13"/>
       <c r="BN73" s="13"/>
     </row>
-    <row r="74" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -9396,7 +9394,7 @@
       <c r="BM74" s="13"/>
       <c r="BN74" s="13"/>
     </row>
-    <row r="75" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -9464,7 +9462,7 @@
       <c r="BM75" s="13"/>
       <c r="BN75" s="13"/>
     </row>
-    <row r="76" spans="1:66" s="23" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -9532,7 +9530,7 @@
       <c r="BM76" s="13"/>
       <c r="BN76" s="13"/>
     </row>
-    <row r="77" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" s="24" customFormat="1" ht="0.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="103" t="s">
         <v>1</v>
       </c>
@@ -9602,7 +9600,7 @@
       <c r="BM77" s="13"/>
       <c r="BN77" s="13"/>
     </row>
-    <row r="78" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="104" t="s">
         <v>15</v>
       </c>
@@ -9672,7 +9670,7 @@
       <c r="BM78" s="13"/>
       <c r="BN78" s="13"/>
     </row>
-    <row r="79" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A79" s="87" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -9745,7 +9743,7 @@
       <c r="BM79" s="13"/>
       <c r="BN79" s="13"/>
     </row>
-    <row r="80" spans="1:66" s="23" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" s="23" customFormat="1" ht="18.75" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -9826,7 +9824,7 @@
       <c r="BM80" s="13"/>
       <c r="BN80" s="13"/>
     </row>
-    <row r="81" spans="1:66" s="23" customFormat="1" ht="37.799999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -9907,7 +9905,7 @@
       <c r="BM81" s="13"/>
       <c r="BN81" s="13"/>
     </row>
-    <row r="82" spans="1:66" s="23" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" s="23" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="86" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -9988,7 +9986,7 @@
       <c r="BM82" s="13"/>
       <c r="BN82" s="13"/>
     </row>
-    <row r="83" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -10056,11 +10054,19 @@
       <c r="BM83" s="26"/>
       <c r="BN83" s="26"/>
     </row>
-    <row r="84" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="18">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="R4:X4"/>
@@ -10071,14 +10077,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H78:H82 H8:H51 H53:H57 H59:H76">
@@ -10172,13 +10170,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
